--- a/TP10/tri-sélection.xlsx
+++ b/TP10/tri-sélection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDrive_baille.maths\ITC 1A - 2021-2022\TP10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F2BB88-9133-4866-9A54-014810A0FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF68D12-56B3-4B2D-869E-A5B3FBB18448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>positions</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>étape</t>
+  </si>
+  <si>
+    <t>Tri sélection en place</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,12 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -427,44 +424,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,79 +530,27 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,30 +833,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="2" style="50" customWidth="1"/>
+    <col min="12" max="12" width="2" style="33" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="8"/>
+      <c r="C1" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
@@ -863,11 +872,11 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="8"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="3">
         <v>0</v>
       </c>
@@ -883,47 +892,47 @@
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="46"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10">
+      <c r="D4" s="37"/>
+      <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8">
         <v>3</v>
       </c>
-      <c r="I4" s="10">
-        <v>4</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="8">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8">
         <v>5</v>
       </c>
-      <c r="K4" s="41">
-        <v>6</v>
-      </c>
-      <c r="L4" s="47"/>
+      <c r="K4" s="24">
+        <v>6</v>
+      </c>
+      <c r="L4" s="30"/>
       <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="1">
         <v>6</v>
       </c>
@@ -942,11 +951,11 @@
       <c r="J5" s="1">
         <v>6</v>
       </c>
-      <c r="K5" s="18">
-        <v>2</v>
-      </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="44" t="s">
+      <c r="K5" s="10">
+        <v>2</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="27" t="s">
         <v>6</v>
       </c>
     </row>
@@ -960,46 +969,46 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
+      <c r="L6" s="31"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10">
+      <c r="D7" s="37"/>
+      <c r="E7" s="8">
         <v>0</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8">
         <v>3</v>
       </c>
-      <c r="I7" s="10">
-        <v>4</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="8">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8">
         <v>5</v>
       </c>
-      <c r="K7" s="41">
-        <v>6</v>
-      </c>
-      <c r="L7" s="47"/>
+      <c r="K7" s="24">
+        <v>6</v>
+      </c>
+      <c r="L7" s="30"/>
       <c r="M7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N7"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="1">
         <v>6</v>
       </c>
@@ -1012,37 +1021,37 @@
       <c r="H8" s="1">
         <v>4</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>6</v>
       </c>
-      <c r="K8" s="18">
-        <v>2</v>
-      </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="44" t="s">
+      <c r="K8" s="10">
+        <v>2</v>
+      </c>
+      <c r="L8" s="31"/>
+      <c r="M8" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="40"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
@@ -1055,36 +1064,36 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="8"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10">
+      <c r="D11" s="37"/>
+      <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8">
         <v>3</v>
       </c>
-      <c r="I11" s="10">
-        <v>4</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="8">
+        <v>4</v>
+      </c>
+      <c r="J11" s="8">
         <v>5</v>
       </c>
-      <c r="K11" s="41">
-        <v>6</v>
-      </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="21" t="s">
+      <c r="K11" s="24">
+        <v>6</v>
+      </c>
+      <c r="L11" s="30"/>
+      <c r="M11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -1096,13 +1105,13 @@
         <f>"k = "&amp;(D12-1)</f>
         <v>k = 0</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="31">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
         <v>6</v>
       </c>
       <c r="F12" s="1">
@@ -1114,30 +1123,30 @@
       <c r="H12" s="1">
         <v>4</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="20">
         <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>6</v>
       </c>
-      <c r="K12" s="18">
-        <v>2</v>
-      </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="45">
-        <v>1</v>
-      </c>
-      <c r="N12" s="37">
+      <c r="K12" s="10">
+        <v>2</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="28">
+        <v>1</v>
+      </c>
+      <c r="N12" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="36">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
         <v>7</v>
       </c>
       <c r="G13" s="1">
@@ -1146,39 +1155,39 @@
       <c r="H13" s="1">
         <v>4</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="13">
         <v>6</v>
       </c>
       <c r="J13" s="1">
         <v>6</v>
       </c>
-      <c r="K13" s="18">
-        <v>2</v>
-      </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="7" t="str">
+      <c r="K13" s="10">
+        <v>2</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="40" t="str">
         <f>"&lt;----    fin de l'étape "&amp;D12</f>
         <v>&lt;----    fin de l'étape 1</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="40"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="28"/>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="40"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
@@ -1191,36 +1200,36 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="8"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10">
+      <c r="D16" s="37"/>
+      <c r="E16" s="8">
         <v>0</v>
       </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>2</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2</v>
+      </c>
+      <c r="H16" s="8">
         <v>3</v>
       </c>
-      <c r="I16" s="10">
-        <v>4</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="8">
+        <v>4</v>
+      </c>
+      <c r="J16" s="8">
         <v>5</v>
       </c>
-      <c r="K16" s="41">
-        <v>6</v>
-      </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="21" t="s">
+      <c r="K16" s="24">
+        <v>6</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -1232,20 +1241,20 @@
         <f>"k = "&amp;(D17-1)</f>
         <v>k = 1</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="17">
         <f>D12+1</f>
         <v>2</v>
       </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="23">
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
         <v>7</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="20">
         <v>2</v>
       </c>
       <c r="H17" s="1">
@@ -1257,27 +1266,27 @@
       <c r="J17" s="1">
         <v>6</v>
       </c>
-      <c r="K17" s="18">
-        <v>2</v>
-      </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="45">
-        <v>2</v>
-      </c>
-      <c r="N17" s="37">
+      <c r="K17" s="10">
+        <v>2</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="28">
+        <v>2</v>
+      </c>
+      <c r="N17" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="19"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="33">
-        <v>2</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="C18" s="38"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="13">
         <v>7</v>
       </c>
       <c r="H18" s="1">
@@ -1289,33 +1298,33 @@
       <c r="J18" s="1">
         <v>6</v>
       </c>
-      <c r="K18" s="18">
-        <v>2</v>
-      </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="7" t="str">
+      <c r="K18" s="10">
+        <v>2</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="40" t="str">
         <f>"&lt;----    fin de l'étape "&amp;D17</f>
         <v>&lt;----    fin de l'étape 2</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="40"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="24" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26" t="s">
+      <c r="F19" s="44"/>
+      <c r="G19" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="40"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
@@ -1328,36 +1337,36 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10">
+      <c r="D21" s="37"/>
+      <c r="E21" s="8">
         <v>0</v>
       </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <v>2</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="8">
         <v>3</v>
       </c>
-      <c r="I21" s="10">
-        <v>4</v>
-      </c>
-      <c r="J21" s="10">
+      <c r="I21" s="8">
+        <v>4</v>
+      </c>
+      <c r="J21" s="8">
         <v>5</v>
       </c>
-      <c r="K21" s="41">
-        <v>6</v>
-      </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="21" t="s">
+      <c r="K21" s="24">
+        <v>6</v>
+      </c>
+      <c r="L21" s="30"/>
+      <c r="M21" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -1369,20 +1378,20 @@
         <f>"k = "&amp;(D22-1)</f>
         <v>k = 2</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="17">
         <f>D17+1</f>
         <v>3</v>
       </c>
-      <c r="E22" s="12">
-        <v>1</v>
-      </c>
-      <c r="F22" s="33">
-        <v>2</v>
-      </c>
-      <c r="G22" s="23">
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18">
+        <v>2</v>
+      </c>
+      <c r="G22" s="13">
         <v>7</v>
       </c>
       <c r="H22" s="1">
@@ -1394,27 +1403,27 @@
       <c r="J22" s="1">
         <v>6</v>
       </c>
-      <c r="K22" s="42">
-        <v>2</v>
-      </c>
-      <c r="L22" s="48"/>
-      <c r="M22" s="45">
-        <v>2</v>
-      </c>
-      <c r="N22" s="37">
+      <c r="K22" s="25">
+        <v>2</v>
+      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="28">
+        <v>2</v>
+      </c>
+      <c r="N22" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12">
-        <v>2</v>
-      </c>
-      <c r="G23" s="36">
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2</v>
+      </c>
+      <c r="G23" s="21">
         <v>2</v>
       </c>
       <c r="H23" s="1">
@@ -1426,33 +1435,33 @@
       <c r="J23" s="1">
         <v>6</v>
       </c>
-      <c r="K23" s="43">
+      <c r="K23" s="26">
         <v>7</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="7" t="str">
+      <c r="L23" s="32"/>
+      <c r="M23" s="40" t="str">
         <f>"&lt;----    fin de l'étape "&amp;D22</f>
         <v>&lt;----    fin de l'étape 3</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="40"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="24" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26" t="s">
+      <c r="G24" s="44"/>
+      <c r="H24" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="40"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
@@ -1465,36 +1474,36 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="8"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10">
+      <c r="D26" s="37"/>
+      <c r="E26" s="8">
         <v>0</v>
       </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>2</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2</v>
+      </c>
+      <c r="H26" s="8">
         <v>3</v>
       </c>
-      <c r="I26" s="10">
-        <v>4</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="I26" s="8">
+        <v>4</v>
+      </c>
+      <c r="J26" s="8">
         <v>5</v>
       </c>
-      <c r="K26" s="41">
-        <v>6</v>
-      </c>
-      <c r="L26" s="47"/>
-      <c r="M26" s="21" t="s">
+      <c r="K26" s="24">
+        <v>6</v>
+      </c>
+      <c r="L26" s="30"/>
+      <c r="M26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -1506,23 +1515,23 @@
         <f>"k = "&amp;(D27-1)</f>
         <v>k = 3</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="17">
         <f>D22+1</f>
         <v>4</v>
       </c>
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12">
-        <v>2</v>
-      </c>
-      <c r="G27" s="33">
-        <v>2</v>
-      </c>
-      <c r="H27" s="35">
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2</v>
+      </c>
+      <c r="G27" s="18">
+        <v>2</v>
+      </c>
+      <c r="H27" s="20">
         <v>4</v>
       </c>
       <c r="I27" s="1">
@@ -1531,30 +1540,30 @@
       <c r="J27" s="1">
         <v>6</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="10">
         <v>7</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="45">
-        <v>4</v>
-      </c>
-      <c r="N27" s="37">
+      <c r="L27" s="31"/>
+      <c r="M27" s="28">
+        <v>4</v>
+      </c>
+      <c r="N27" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="12">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12">
-        <v>2</v>
-      </c>
-      <c r="G28" s="12">
-        <v>2</v>
-      </c>
-      <c r="H28" s="22">
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2</v>
+      </c>
+      <c r="H28" s="12">
         <v>4</v>
       </c>
       <c r="I28" s="1">
@@ -1563,33 +1572,33 @@
       <c r="J28" s="1">
         <v>6</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="10">
         <v>7</v>
       </c>
-      <c r="L28" s="48"/>
-      <c r="M28" s="7" t="str">
+      <c r="L28" s="31"/>
+      <c r="M28" s="40" t="str">
         <f>"&lt;----    fin de l'étape "&amp;D27</f>
         <v>&lt;----    fin de l'étape 4</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="40"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="24" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26" t="s">
+      <c r="H29" s="44"/>
+      <c r="I29" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="40"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="23"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
@@ -1602,36 +1611,36 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="8"/>
+      <c r="M30" s="6"/>
     </row>
     <row r="31" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10">
+      <c r="D31" s="37"/>
+      <c r="E31" s="8">
         <v>0</v>
       </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>2</v>
-      </c>
-      <c r="H31" s="10">
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2</v>
+      </c>
+      <c r="H31" s="8">
         <v>3</v>
       </c>
-      <c r="I31" s="10">
-        <v>4</v>
-      </c>
-      <c r="J31" s="10">
+      <c r="I31" s="8">
+        <v>4</v>
+      </c>
+      <c r="J31" s="8">
         <v>5</v>
       </c>
-      <c r="K31" s="41">
-        <v>6</v>
-      </c>
-      <c r="L31" s="47"/>
-      <c r="M31" s="21" t="s">
+      <c r="K31" s="24">
+        <v>6</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -1643,90 +1652,90 @@
         <f>"k = "&amp;(D32-1)</f>
         <v>k = 4</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="17">
         <f>D27+1</f>
         <v>5</v>
       </c>
-      <c r="E32" s="12">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12">
-        <v>2</v>
-      </c>
-      <c r="G32" s="12">
-        <v>2</v>
-      </c>
-      <c r="H32" s="22">
-        <v>4</v>
-      </c>
-      <c r="I32" s="35">
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2</v>
+      </c>
+      <c r="G32" s="9">
+        <v>2</v>
+      </c>
+      <c r="H32" s="12">
+        <v>4</v>
+      </c>
+      <c r="I32" s="20">
         <v>6</v>
       </c>
       <c r="J32" s="1">
         <v>6</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="10">
         <v>7</v>
       </c>
-      <c r="L32" s="48"/>
-      <c r="M32" s="45">
-        <v>6</v>
-      </c>
-      <c r="N32" s="37">
+      <c r="L32" s="31"/>
+      <c r="M32" s="28">
+        <v>6</v>
+      </c>
+      <c r="N32" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="12">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12">
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
         <v>7</v>
       </c>
-      <c r="G33" s="12">
-        <v>2</v>
-      </c>
-      <c r="H33" s="12">
-        <v>4</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="G33" s="9">
+        <v>2</v>
+      </c>
+      <c r="H33" s="9">
+        <v>4</v>
+      </c>
+      <c r="I33" s="12">
         <v>6</v>
       </c>
       <c r="J33" s="1">
         <v>6</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="10">
         <v>7</v>
       </c>
-      <c r="L33" s="48"/>
-      <c r="M33" s="7" t="str">
+      <c r="L33" s="31"/>
+      <c r="M33" s="40" t="str">
         <f>"&lt;----    fin de l'étape "&amp;D32</f>
         <v>&lt;----    fin de l'étape 5</v>
       </c>
-      <c r="N33" s="7"/>
+      <c r="N33" s="40"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="24" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26" t="s">
+      <c r="I34" s="44"/>
+      <c r="J34" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="40"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="23"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
@@ -1739,36 +1748,36 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="8"/>
+      <c r="M35" s="6"/>
     </row>
     <row r="36" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="10">
+      <c r="D36" s="37"/>
+      <c r="E36" s="8">
         <v>0</v>
       </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>2</v>
-      </c>
-      <c r="H36" s="10">
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>2</v>
+      </c>
+      <c r="H36" s="8">
         <v>3</v>
       </c>
-      <c r="I36" s="10">
-        <v>4</v>
-      </c>
-      <c r="J36" s="10">
+      <c r="I36" s="8">
+        <v>4</v>
+      </c>
+      <c r="J36" s="8">
         <v>5</v>
       </c>
-      <c r="K36" s="41">
-        <v>6</v>
-      </c>
-      <c r="L36" s="47"/>
-      <c r="M36" s="21" t="s">
+      <c r="K36" s="24">
+        <v>6</v>
+      </c>
+      <c r="L36" s="30"/>
+      <c r="M36" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -1780,90 +1789,90 @@
         <f>"k = "&amp;(D37-1)</f>
         <v>k = 5</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="17">
         <f>D32+1</f>
         <v>6</v>
       </c>
-      <c r="E37" s="12">
-        <v>1</v>
-      </c>
-      <c r="F37" s="12">
-        <v>2</v>
-      </c>
-      <c r="G37" s="12">
-        <v>2</v>
-      </c>
-      <c r="H37" s="12">
-        <v>4</v>
-      </c>
-      <c r="I37" s="22">
-        <v>6</v>
-      </c>
-      <c r="J37" s="35">
-        <v>6</v>
-      </c>
-      <c r="K37" s="18">
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2</v>
+      </c>
+      <c r="G37" s="9">
+        <v>2</v>
+      </c>
+      <c r="H37" s="9">
+        <v>4</v>
+      </c>
+      <c r="I37" s="12">
+        <v>6</v>
+      </c>
+      <c r="J37" s="20">
+        <v>6</v>
+      </c>
+      <c r="K37" s="10">
         <v>7</v>
       </c>
-      <c r="L37" s="48"/>
-      <c r="M37" s="45">
-        <v>6</v>
-      </c>
-      <c r="N37" s="37">
+      <c r="L37" s="31"/>
+      <c r="M37" s="28">
+        <v>6</v>
+      </c>
+      <c r="N37" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="12">
-        <v>1</v>
-      </c>
-      <c r="F38" s="12">
-        <v>2</v>
-      </c>
-      <c r="G38" s="12">
-        <v>2</v>
-      </c>
-      <c r="H38" s="12">
-        <v>4</v>
-      </c>
-      <c r="I38" s="12">
-        <v>6</v>
-      </c>
-      <c r="J38" s="22">
-        <v>6</v>
-      </c>
-      <c r="K38" s="18">
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
+        <v>2</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2</v>
+      </c>
+      <c r="H38" s="9">
+        <v>4</v>
+      </c>
+      <c r="I38" s="9">
+        <v>6</v>
+      </c>
+      <c r="J38" s="12">
+        <v>6</v>
+      </c>
+      <c r="K38" s="10">
         <v>7</v>
       </c>
-      <c r="L38" s="48"/>
-      <c r="M38" s="7" t="str">
+      <c r="L38" s="31"/>
+      <c r="M38" s="40" t="str">
         <f>"&lt;----    fin de l'étape "&amp;D37</f>
         <v>&lt;----    fin de l'étape 6</v>
       </c>
-      <c r="N38" s="7"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="38" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="26" t="s">
+      <c r="J39" s="42"/>
+      <c r="K39" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
@@ -1876,7 +1885,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="8"/>
+      <c r="M40" s="6"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
@@ -1889,7 +1898,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="8"/>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
@@ -1902,7 +1911,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="8"/>
+      <c r="M42" s="6"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
@@ -1915,7 +1924,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="8"/>
+      <c r="M43" s="6"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
@@ -1928,21 +1937,21 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="8"/>
+      <c r="M44" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="H34:I34"/>
+  <mergeCells count="38">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="D14:E14"/>
@@ -1959,16 +1968,17 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="G19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
